--- a/data/trans_orig/P14A07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A07-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DE026BF-0047-47B0-A118-2CA8CC7710E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{575C4608-932D-4A98-B36D-19E2CADBED1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{85FACBA2-6DF3-46B4-9EF6-E3FE58F17FE3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CA188270-7EB2-4EFD-AA80-1E88A0DF336D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -282,163 +282,163 @@
     <t>76,58%</t>
   </si>
   <si>
-    <t>17,33%</t>
+    <t>17,31%</t>
   </si>
   <si>
     <t>64,42%</t>
   </si>
   <si>
-    <t>14,84%</t>
+    <t>15,37%</t>
   </si>
   <si>
     <t>23,42%</t>
   </si>
   <si>
-    <t>82,67%</t>
+    <t>82,69%</t>
   </si>
   <si>
     <t>35,58%</t>
   </si>
   <si>
-    <t>85,16%</t>
+    <t>84,63%</t>
   </si>
   <si>
     <t>66,81%</t>
   </si>
   <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
   </si>
   <si>
     <t>69,33%</t>
   </si>
   <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
   </si>
   <si>
     <t>33,19%</t>
   </si>
   <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
   </si>
   <si>
     <t>30,67%</t>
   </si>
   <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
   </si>
   <si>
     <t>79,61%</t>
   </si>
   <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
   </si>
   <si>
     <t>80,01%</t>
   </si>
   <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
   </si>
   <si>
     <t>79,89%</t>
   </si>
   <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
   </si>
   <si>
     <t>20,39%</t>
   </si>
   <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
   </si>
   <si>
     <t>19,99%</t>
   </si>
   <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
   </si>
   <si>
     <t>20,11%</t>
   </si>
   <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
   </si>
   <si>
     <t>76,16%</t>
   </si>
   <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
   </si>
   <si>
     <t>76,15%</t>
   </si>
   <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
   </si>
   <si>
     <t>23,84%</t>
   </si>
   <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
   </si>
   <si>
     <t>23,85%</t>
   </si>
   <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
   </si>
 </sst>
 </file>
@@ -850,7 +850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AFFA4F-6245-4899-B329-F41D5C1E2736}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204409F4-B69B-40F3-99E8-CB0C879C36DB}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2027,7 +2027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B782696-BDE0-405C-B8A1-97F895F0A897}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019340D2-3D34-4691-9FBF-7A0007C8E42A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14A07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A07-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{575C4608-932D-4A98-B36D-19E2CADBED1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A907C50-26DA-4ED8-B698-0FDB89E653B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CA188270-7EB2-4EFD-AA80-1E88A0DF336D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{501A8E04-8B19-4E77-9756-927B6211B391}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -102,19 +102,19 @@
     <t>51,71%</t>
   </si>
   <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
   </si>
   <si>
     <t>48,29%</t>
   </si>
   <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -123,19 +123,19 @@
     <t>45,74%</t>
   </si>
   <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
   </si>
   <si>
     <t>54,26%</t>
   </si>
   <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -144,19 +144,19 @@
     <t>68,41%</t>
   </si>
   <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
   </si>
   <si>
     <t>31,59%</t>
   </si>
   <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -165,97 +165,97 @@
     <t>70,73%</t>
   </si>
   <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
   </si>
   <si>
     <t>66,8%</t>
   </si>
   <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
   </si>
   <si>
     <t>67,77%</t>
   </si>
   <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
   </si>
   <si>
     <t>29,27%</t>
   </si>
   <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
   </si>
   <si>
     <t>33,2%</t>
   </si>
   <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
   </si>
   <si>
     <t>32,23%</t>
   </si>
   <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
   </si>
   <si>
     <t>61,16%</t>
   </si>
   <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
   </si>
   <si>
     <t>62,38%</t>
   </si>
   <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
   </si>
   <si>
     <t>38,84%</t>
   </si>
   <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
   </si>
   <si>
     <t>37,62%</t>
   </si>
   <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por estreñimiento crónico en 2015 (Tasa respuesta: 1,04%)</t>
+    <t>Población que recibe medicación o terapia por estreñimiento crónico en 2016 (Tasa respuesta: 1,04%)</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -282,76 +282,76 @@
     <t>76,58%</t>
   </si>
   <si>
-    <t>17,31%</t>
+    <t>17,34%</t>
   </si>
   <si>
     <t>64,42%</t>
   </si>
   <si>
-    <t>15,37%</t>
+    <t>29,07%</t>
   </si>
   <si>
     <t>23,42%</t>
   </si>
   <si>
-    <t>82,69%</t>
+    <t>82,66%</t>
   </si>
   <si>
     <t>35,58%</t>
   </si>
   <si>
-    <t>84,63%</t>
+    <t>70,93%</t>
   </si>
   <si>
     <t>66,81%</t>
   </si>
   <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
   </si>
   <si>
     <t>69,33%</t>
   </si>
   <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
   </si>
   <si>
     <t>33,19%</t>
   </si>
   <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
   </si>
   <si>
     <t>30,67%</t>
   </si>
   <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
   </si>
   <si>
     <t>79,61%</t>
   </si>
   <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
   </si>
   <si>
     <t>80,01%</t>
   </si>
   <si>
-    <t>62,34%</t>
+    <t>63,14%</t>
   </si>
   <si>
     <t>91,08%</t>
@@ -360,19 +360,19 @@
     <t>79,89%</t>
   </si>
   <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
   </si>
   <si>
     <t>20,39%</t>
   </si>
   <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
   </si>
   <si>
     <t>19,99%</t>
@@ -381,64 +381,64 @@
     <t>8,92%</t>
   </si>
   <si>
-    <t>37,66%</t>
+    <t>36,86%</t>
   </si>
   <si>
     <t>20,11%</t>
   </si>
   <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
   </si>
   <si>
     <t>76,16%</t>
   </si>
   <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
   </si>
   <si>
     <t>76,15%</t>
   </si>
   <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
   </si>
   <si>
     <t>23,84%</t>
   </si>
   <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
   </si>
   <si>
     <t>23,85%</t>
   </si>
   <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
   </si>
 </sst>
 </file>
@@ -850,7 +850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204409F4-B69B-40F3-99E8-CB0C879C36DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4703ED0-3926-426A-887F-1B85745F5ECD}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2027,7 +2027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019340D2-3D34-4691-9FBF-7A0007C8E42A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36D9D5F-BAE3-455D-8EE8-8865AC27B9DD}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
